--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4194502.048432727</v>
+        <v>4187328.759722442</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.7357022</v>
+        <v>2346514.735702198</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>243.2386572690347</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>275.3054140077786</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>121.1497337849644</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3009544450228</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>28.69723130130867</v>
+        <v>7.203367682519206</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>372.0396308464214</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>325.6514468237968</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>363.280242630518</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -980,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>97.59379580049041</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -992,10 +992,10 @@
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>61.13296424342674</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281882</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129682</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>30.44838804308396</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>30.44838804308322</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>34.31940075816931</v>
       </c>
       <c r="V8" t="n">
-        <v>119.2212137007565</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6.908481403325515</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>126.0887386816669</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274149</v>
+        <v>81.77913505274078</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498011</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>27.26009267756312</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1660,19 +1660,19 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>135.9059707721082</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1824,7 +1824,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>200.3515354119996</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>246.253440960616</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44.76059872677006</v>
+        <v>127.4321567831321</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2532,16 +2532,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
-        <v>11.51110096989759</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710091</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274081</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>6.063010891604063</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>177.5939588782009</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>47.27820527287692</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>25.82923535834103</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>143.6235551937902</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784672</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>24.29718497126799</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>11.84214567871198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>5.459896748108878</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.80803714491062</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>215.6214853475421</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1104.626054809422</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="C2" t="n">
-        <v>825.6800813726991</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="D2" t="n">
-        <v>546.7341079359765</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="E2" t="n">
-        <v>546.7341079359765</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="F2" t="n">
-        <v>267.7881344992538</v>
+        <v>244.5269358890827</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="X2" t="n">
-        <v>1104.626054809422</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="Y2" t="n">
-        <v>1104.626054809422</v>
+        <v>251.4724366382861</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>258.7068067399522</v>
+        <v>318.9190188469764</v>
       </c>
       <c r="C3" t="n">
-        <v>258.7068067399522</v>
+        <v>144.4659895658494</v>
       </c>
       <c r="D3" t="n">
-        <v>109.772397078701</v>
+        <v>144.4659895658494</v>
       </c>
       <c r="E3" t="n">
-        <v>109.772397078701</v>
+        <v>144.4659895658494</v>
       </c>
       <c r="F3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>94.45522409818579</v>
       </c>
       <c r="M3" t="n">
-        <v>679.0427979944839</v>
+        <v>367.8501726635177</v>
       </c>
       <c r="N3" t="n">
-        <v>828.8278839945614</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945614</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>836.17674519153</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>634.2968452196393</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="U3" t="n">
-        <v>634.2968452196393</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="V3" t="n">
-        <v>634.2968452196393</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="W3" t="n">
-        <v>634.2968452196393</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="X3" t="n">
-        <v>634.2968452196393</v>
+        <v>694.8946546319984</v>
       </c>
       <c r="Y3" t="n">
-        <v>426.9221437600203</v>
+        <v>487.1343558670445</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>51.07962342074265</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.924109854494</v>
+        <v>738.8951582090285</v>
       </c>
       <c r="C5" t="n">
-        <v>761.924109854494</v>
+        <v>738.8951582090285</v>
       </c>
       <c r="D5" t="n">
-        <v>403.6584112477435</v>
+        <v>380.629459602278</v>
       </c>
       <c r="E5" t="n">
-        <v>403.6584112477435</v>
+        <v>51.68860422470544</v>
       </c>
       <c r="F5" t="n">
-        <v>396.71291049854</v>
+        <v>44.74310347550197</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380403</v>
+        <v>57.64391735380383</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456878</v>
+        <v>220.1747338456874</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039974</v>
+        <v>474.0852112039968</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494157</v>
+        <v>773.2160860494148</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635721</v>
+        <v>1062.55521363572</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293128</v>
+        <v>1290.582309293126</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.52377693588</v>
+        <v>1447.523776935878</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="U5" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="W5" t="n">
-        <v>1135.389868115574</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="X5" t="n">
-        <v>761.924109854494</v>
+        <v>1114.692765124606</v>
       </c>
       <c r="Y5" t="n">
-        <v>761.924109854494</v>
+        <v>1114.692765124606</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>791.7196666908458</v>
+        <v>857.9455308724621</v>
       </c>
       <c r="C6" t="n">
-        <v>617.2666374097188</v>
+        <v>683.4925015913351</v>
       </c>
       <c r="D6" t="n">
-        <v>617.2666374097188</v>
+        <v>584.912909873668</v>
       </c>
       <c r="E6" t="n">
-        <v>458.0291824042633</v>
+        <v>425.6754548682125</v>
       </c>
       <c r="F6" t="n">
-        <v>311.4946244311483</v>
+        <v>279.1408968950974</v>
       </c>
       <c r="G6" t="n">
-        <v>173.0192185548305</v>
+        <v>140.6654910187796</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782847</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="K6" t="n">
-        <v>218.4568186361413</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="L6" t="n">
-        <v>218.4568186361413</v>
+        <v>314.0811796138497</v>
       </c>
       <c r="M6" t="n">
-        <v>586.776053174099</v>
+        <v>581.07760133144</v>
       </c>
       <c r="N6" t="n">
-        <v>949.396835869399</v>
+        <v>949.3968358693971</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241718</v>
+        <v>1257.711717241716</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.84741070761</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="S6" t="n">
-        <v>1402.84741070761</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="T6" t="n">
-        <v>1402.84741070761</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="U6" t="n">
-        <v>1402.84741070761</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="V6" t="n">
-        <v>1167.695302475868</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="W6" t="n">
-        <v>1167.695302475868</v>
+        <v>1233.921166657484</v>
       </c>
       <c r="X6" t="n">
-        <v>1167.695302475868</v>
+        <v>1233.921166657484</v>
       </c>
       <c r="Y6" t="n">
-        <v>959.9350037109139</v>
+        <v>1026.16086789253</v>
       </c>
     </row>
     <row r="7">
@@ -4701,55 +4701,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888154</v>
+        <v>32.09990175888138</v>
       </c>
       <c r="L7" t="n">
-        <v>90.6165479061126</v>
+        <v>90.61654790611232</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236687</v>
+        <v>162.7032697236683</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400019</v>
+        <v>238.5105468400014</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057944</v>
+        <v>292.5145415057937</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918673</v>
+        <v>315.2036061918665</v>
       </c>
       <c r="Q7" t="n">
-        <v>284.4476586736006</v>
+        <v>315.2036061918665</v>
       </c>
       <c r="R7" t="n">
-        <v>284.4476586736006</v>
+        <v>315.2036061918665</v>
       </c>
       <c r="S7" t="n">
         <v>284.4476586736006</v>
@@ -4761,16 +4761,16 @@
         <v>284.4476586736006</v>
       </c>
       <c r="V7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771371</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2431.276852490997</v>
       </c>
       <c r="V8" t="n">
-        <v>2521.694933164113</v>
+        <v>2100.213965147427</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.926277893999</v>
+        <v>1747.445309877312</v>
       </c>
       <c r="X8" t="n">
-        <v>1795.460519632919</v>
+        <v>1373.979551616233</v>
       </c>
       <c r="Y8" t="n">
-        <v>1405.321187657107</v>
+        <v>983.8402196404209</v>
       </c>
     </row>
     <row r="9">
@@ -4886,16 +4886,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805478</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382247</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>592.8217113586338</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115523</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395484</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059517</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1471.380823408849</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1271.460813324402</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1271.460813324402</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>982.3321745379599</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>727.647686332073</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905256</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5266,52 +5266,52 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5354,16 +5354,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341678</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>381.3857973138611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>381.3857973138611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>381.3857973138611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488391</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>898.7925182488391</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>609.3753482118784</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>381.3857973138611</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>381.3857973138611</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5500,43 +5500,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823768</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514066</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5582,31 +5582,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845923</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>2013.406634128705</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5673,16 +5673,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.921157035281</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488391</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>696.41722995389</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>696.41722995389</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>468.4276790558727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507006</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>826.4699958077928</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>826.4699958077928</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>826.4699958077928</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>598.4804449097754</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W25" t="n">
-        <v>531.3977182706318</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X25" t="n">
-        <v>531.3977182706318</v>
+        <v>446.729020889808</v>
       </c>
       <c r="Y25" t="n">
-        <v>310.6051391271017</v>
+        <v>225.9364417462779</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2208.321444831246</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>545.8631874464246</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1176.293782318212</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1176.293782318212</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1176.293782318212</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>1176.293782318212</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>948.3042314201945</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>727.5116522766643</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>485.404702608941</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>732.169830515405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>272.2775278140555</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>103.3413448861486</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>103.3413448861486</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>103.3413448861486</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V31" t="n">
-        <v>895.8230080122524</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W31" t="n">
-        <v>895.8230080122524</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X31" t="n">
-        <v>667.8334571142351</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.040877970705</v>
+        <v>453.9259926442952</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,22 +6691,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6715,7 +6715,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6724,28 +6724,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6785,19 +6785,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1646.27469227828</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1925.814757496977</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>144.9728543621817</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C34" t="n">
-        <v>144.9728543621817</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.712528333286</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>844.0280401273993</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>554.6108700904388</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>326.6213191924214</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y34" t="n">
-        <v>326.6213191924214</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="35">
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,10 +6970,10 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7022,16 +7022,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>709.4934589365139</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.813592216476</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1346.676219880508</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4389.788938147092</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4220.852755219185</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>4070.73611580685</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3922.823022224457</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014292</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4571.437402977332</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4571.437402977332</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4571.437402977332</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7165,22 +7165,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7198,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864554</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>994.3109288932102</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="C40" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1187.92115703528</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1187.92115703528</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X40" t="n">
-        <v>1187.92115703528</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y40" t="n">
-        <v>1175.95939372345</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="41">
@@ -7396,49 +7396,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7496,16 +7496,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M42" t="n">
-        <v>841.863114014129</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.27469227828</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O42" t="n">
-        <v>2315.738453580939</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.2416896507652</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7605,16 +7605,16 @@
         <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W43" t="n">
-        <v>1009.867621687013</v>
+        <v>714.9354044297403</v>
       </c>
       <c r="X43" t="n">
-        <v>781.8780707889955</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y43" t="n">
-        <v>763.890154481005</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,67 +7633,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>816.7950850315608</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1124.115218311523</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.977845975555</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324574</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954967</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>195.2920992522434</v>
       </c>
       <c r="M3" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>263.0480264917442</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948385</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.00923094357594</v>
       </c>
       <c r="L6" t="n">
-        <v>83.65043707503881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835734</v>
+        <v>347.7570777074449</v>
       </c>
       <c r="N6" t="n">
-        <v>431.8592689847652</v>
+        <v>437.6152809470456</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247342</v>
+        <v>107.7037345247344</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>182.0340742867935</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599038</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229571</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720718</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9248,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O18" t="n">
-        <v>38.86002301949799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,19 +9482,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O21" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>124.3400780863231</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>124.3400780863231</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>73.53204524669994</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10433,22 +10433,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>199.623080587109</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>176.7176547498449</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298017</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,22 +10907,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O39" t="n">
-        <v>308.1251096272032</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,19 +11144,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>15.83804904622852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11378,10 +11378,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>20.63789864135413</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>82.70425972622965</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="14">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>10.52799187446101</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>79.43092547709131</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>51.78610791182842</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>39.98391143796135</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>135.0713814551672</v>
+        <v>52.39982339880518</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
-        <v>210.0364600884917</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>139.3580371313272</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>74.54368444562709</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>101.3372677453354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>119.5918126645902</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>1.797492829141049</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>142.9496361273598</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.7425076733828</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>246.6777465757191</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>200.7766162071842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>2.963168004552642</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642837</v>
+        <v>821041.769864284</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="H2" t="n">
+        <v>782058.1194754174</v>
+      </c>
+      <c r="I2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>782058.1194754179</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>782058.1194754179</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="N2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="M2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="N2" t="n">
-        <v>782058.1194754175</v>
-      </c>
       <c r="O2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="P2" t="n">
         <v>782058.1194754179</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703837</v>
+        <v>106137.1517703829</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252111</v>
+        <v>316711.9424252117</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113907</v>
+        <v>72254.69487113916</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313412</v>
+        <v>24677.24609313393</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817144</v>
+        <v>76496.15793817166</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>300141.6569151476</v>
       </c>
       <c r="C4" t="n">
-        <v>269877.2512870324</v>
+        <v>269877.2512870326</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230227</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230226</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230225</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
@@ -26453,10 +26453,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230239</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26472,22 +26472,22 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485713</v>
+        <v>58810.42201485708</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26505,7 +26505,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>343425.3919855426</v>
+        <v>343425.3919855424</v>
       </c>
       <c r="C6" t="n">
-        <v>386216.9447920105</v>
+        <v>386216.9447920115</v>
       </c>
       <c r="D6" t="n">
-        <v>246979.9720538367</v>
+        <v>246979.9720538355</v>
       </c>
       <c r="E6" t="n">
-        <v>135607.2114975026</v>
+        <v>134632.6202377813</v>
       </c>
       <c r="F6" t="n">
-        <v>660767.247974399</v>
+        <v>659792.6567146771</v>
       </c>
       <c r="G6" t="n">
-        <v>660767.2479743994</v>
+        <v>659792.6567146771</v>
       </c>
       <c r="H6" t="n">
-        <v>660767.247974399</v>
+        <v>659792.6567146769</v>
       </c>
       <c r="I6" t="n">
-        <v>660767.247974399</v>
+        <v>659792.6567146771</v>
       </c>
       <c r="J6" t="n">
-        <v>588512.5531032596</v>
+        <v>587537.9618435382</v>
       </c>
       <c r="K6" t="n">
-        <v>636090.0018812647</v>
+        <v>635115.4106215432</v>
       </c>
       <c r="L6" t="n">
-        <v>584271.0900362274</v>
+        <v>583296.4987765057</v>
       </c>
       <c r="M6" t="n">
-        <v>525966.2327405615</v>
+        <v>524991.6414808403</v>
       </c>
       <c r="N6" t="n">
-        <v>660767.2479743987</v>
+        <v>659792.6567146771</v>
       </c>
       <c r="O6" t="n">
-        <v>660767.2479743988</v>
+        <v>659792.6567146771</v>
       </c>
       <c r="P6" t="n">
-        <v>660767.247974399</v>
+        <v>659792.6567146772</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593889</v>
+        <v>117.5602045593884</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.039630846422</v>
+        <v>372.0396308464214</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,13 +26937,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026361</v>
+        <v>82.53894384026304</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576978</v>
+        <v>260.1834596576982</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406656</v>
+        <v>95.88311714406591</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081336</v>
+        <v>302.2476419081342</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.838718594922349e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023558</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406656</v>
+        <v>95.88311714406591</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081336</v>
+        <v>302.2476419081342</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406656</v>
+        <v>95.88311714406591</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081336</v>
+        <v>302.2476419081342</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>89.11637806865212</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>78.52652791832753</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>171.9232912582848</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>52.4468444623563</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,16 +27460,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>23.91947860841952</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -27478,7 +27478,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.3817413322815355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>116.7238167216226</v>
+        <v>138.217680340412</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>10.69421081705917</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>56.27892324846493</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>51.54989104719238</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
         <v>192.255830128091</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385217</v>
+        <v>120.1819171385218</v>
       </c>
       <c r="S5" t="n">
         <v>198.2506096409305</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>49.85126976414834</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>48.66033310212845</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281887</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129689</v>
       </c>
       <c r="S6" t="n">
         <v>166.9863082141302</v>
@@ -27754,10 +27754,10 @@
         <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27797,7 +27797,7 @@
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358479</v>
+        <v>78.37121764358486</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>37.9620643201427</v>
+        <v>68.41045236322674</v>
       </c>
       <c r="R7" t="n">
         <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>189.8737360243751</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>216.90476675012</v>
       </c>
       <c r="V8" t="n">
-        <v>208.5310447693785</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>160.1931355603109</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-7.958078640513122e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>-1.54335762560769e-12</v>
       </c>
       <c r="D29" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.958078640513122e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246787</v>
+        <v>0.4726038374246765</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025492</v>
+        <v>4.84005405002547</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231494</v>
+        <v>18.22005944231486</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662286</v>
+        <v>40.11165994662268</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480952</v>
+        <v>60.11698038480925</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439504</v>
+        <v>74.58043007439471</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819616</v>
+        <v>82.9850985681958</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127905</v>
+        <v>84.32788422127867</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288739</v>
+        <v>79.62842981288703</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646562</v>
+        <v>67.96102257646533</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.0358976486943</v>
+        <v>51.03589764869407</v>
       </c>
       <c r="R5" t="n">
-        <v>29.687200802628</v>
+        <v>29.68720080262786</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531488</v>
+        <v>10.76945994531483</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326532</v>
+        <v>2.068823298326523</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397428</v>
+        <v>0.03780830699397412</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560441</v>
+        <v>0.252865345656043</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941268</v>
+        <v>2.442146890941257</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596255</v>
+        <v>8.706109488596216</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182827</v>
+        <v>23.89022987182816</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078322</v>
+        <v>40.83220803078304</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483537</v>
+        <v>54.90394270483512</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486695</v>
+        <v>64.07031148486666</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270946</v>
+        <v>65.76606198270918</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106764</v>
+        <v>60.16309827106737</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496863</v>
+        <v>48.28619043496841</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128731</v>
+        <v>32.27803956128717</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134632</v>
+        <v>15.69983260134625</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707657</v>
+        <v>4.696862889707637</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01922479235923</v>
+        <v>1.019224792359225</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368712</v>
+        <v>0.01663587800368704</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005373</v>
+        <v>0.2119938115005364</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886597</v>
+        <v>1.884817705886589</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761616</v>
+        <v>6.375232076761588</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308799</v>
+        <v>14.98796247308792</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342606</v>
+        <v>24.62982646342595</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072535</v>
+        <v>31.51769812072521</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094332</v>
+        <v>33.23099356094317</v>
       </c>
       <c r="N7" t="n">
-        <v>32.4408348089868</v>
+        <v>32.44083480898665</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736687</v>
+        <v>29.96436164736674</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275589</v>
+        <v>25.63968789275577</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846772</v>
+        <v>17.75159088846765</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651431</v>
+        <v>9.532012651651389</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513909</v>
+        <v>3.694473969513892</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477503</v>
+        <v>0.9057917400477462</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912023</v>
+        <v>0.01156329880912018</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>248.6418854471727</v>
+        <v>73.09363939595693</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>151.298066666745</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201034</v>
+        <v>28.16237059201016</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109937</v>
+        <v>164.1725419109934</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548583</v>
+        <v>256.4752296548579</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337559</v>
+        <v>302.1523988337556</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366723</v>
+        <v>292.2617450366719</v>
       </c>
       <c r="O5" t="n">
-        <v>230.330399653946</v>
+        <v>230.3303996539457</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926787</v>
+        <v>158.5267349926784</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.0451984341495</v>
+        <v>41.04519843414927</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557041</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690028</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>287.1899082284201</v>
       </c>
       <c r="M6" t="n">
-        <v>372.039630846422</v>
+        <v>269.6933552702932</v>
       </c>
       <c r="N6" t="n">
-        <v>366.2836188841413</v>
+        <v>372.0396308464214</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033527</v>
+        <v>311.4291731033525</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605756</v>
+        <v>232.7745516605753</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543207</v>
+        <v>2.360334637543097</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104149</v>
+        <v>59.10772338104135</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278391</v>
+        <v>72.81487052278376</v>
       </c>
       <c r="N7" t="n">
-        <v>76.5730071882154</v>
+        <v>76.57300718821524</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140655</v>
+        <v>54.54948956140642</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764938</v>
+        <v>22.91824715764926</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>332.6095128747328</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734236</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507422</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415061</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
-        <v>321.2237252606063</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507422</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
-        <v>536.1008625915819</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36451,13 +36451,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36688,13 +36688,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>224.1074838346392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36922,13 +36922,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37153,22 +37153,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>406.7164955186337</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>425.9753597058693</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37402,7 +37402,7 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507413</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
-        <v>590.4888118683114</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>222.9314639777532</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38098,10 +38098,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>269.8956035973785</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38113,10 +38113,10 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
